--- a/Datasets/Invoices.xlsx
+++ b/Datasets/Invoices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Power BI/Trainer/Data sets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/NPCI/NPCI/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{33B6DFF5-7AF9-4555-A7BF-7A773537156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD599BC3-6FFA-465F-98DD-7E534C824748}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{33B6DFF5-7AF9-4555-A7BF-7A773537156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F538D1A-1E66-4C86-A86A-57FC25F4A8FB}"/>
   <bookViews>
-    <workbookView xWindow="26772" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E79D7A3-7447-44DC-9083-606287E60895}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11486" xr2:uid="{6E79D7A3-7447-44DC-9083-606287E60895}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoices" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Invoices!$A$1:$E$250</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Invoices!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Invoices!#REF!</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Invoices!$G$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Invoices!$G$2:$G$251</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="278">
   <si>
     <t>Invoice #</t>
   </si>
@@ -889,6 +885,12 @@
   </si>
   <si>
     <t>INV251</t>
+  </si>
+  <si>
+    <t>INV252</t>
+  </si>
+  <si>
+    <t>Vendor 1</t>
   </si>
 </sst>
 </file>
@@ -1444,10 +1446,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1765,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F6296A-6856-47C6-A876-23C1585A6588}">
-  <dimension ref="A1:F252"/>
+  <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="E251" sqref="E251"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="F254" sqref="F254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6816,6 +6814,26 @@
         <v>7</v>
       </c>
       <c r="F252" s="2"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A253" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B253" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E253" s="1">
+        <v>8</v>
+      </c>
+      <c r="F253" s="2">
+        <v>45826</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Datasets/Invoices.xlsx
+++ b/Datasets/Invoices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/NPCI/NPCI/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{33B6DFF5-7AF9-4555-A7BF-7A773537156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F538D1A-1E66-4C86-A86A-57FC25F4A8FB}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{33B6DFF5-7AF9-4555-A7BF-7A773537156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E24652AC-2643-492A-B092-B153C41362E3}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11486" xr2:uid="{6E79D7A3-7447-44DC-9083-606287E60895}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="279">
   <si>
     <t>Invoice #</t>
   </si>
@@ -891,6 +891,9 @@
   </si>
   <si>
     <t>Vendor 1</t>
+  </si>
+  <si>
+    <t>Vendor1</t>
   </si>
 </sst>
 </file>
@@ -1446,6 +1449,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1765,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F6296A-6856-47C6-A876-23C1585A6588}">
   <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="F254" sqref="F254"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1827,7 +1834,7 @@
         <v>44577</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>278</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
